--- a/files/21.Лаванда-4/2025/02/ла2025.02_счетчики.xlsx
+++ b/files/21.Лаванда-4/2025/02/ла2025.02_счетчики.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="301">
   <si>
     <t>№ П П</t>
   </si>
@@ -67,10 +67,7 @@
     <t>62Z0377475654396</t>
   </si>
   <si>
-    <t>СИСТЕМ�� OE-009 NFH</t>
-  </si>
-  <si>
-    <t>025666</t>
+    <t>СИСТЕМА OE-009 NFH</t>
   </si>
   <si>
     <t>Авід</t>
@@ -82,28 +79,19 @@
     <t>62Z2472696996581</t>
   </si>
   <si>
-    <t>СИСТЕМА OE-009 NFH</t>
-  </si>
-  <si>
-    <t>025669</t>
-  </si>
-  <si>
     <t>003.00945113.ПОПОВА Я.О.</t>
   </si>
   <si>
     <t>62Z0512300235493</t>
   </si>
   <si>
-    <t>025676</t>
-  </si>
-  <si>
     <t>004.00945114.ЦОЦОРИНА А.В.</t>
   </si>
   <si>
     <t>62Z3043701753992</t>
   </si>
   <si>
-    <t>025668</t>
+    <t>СИС��ЕМА OE-009 NFH</t>
   </si>
   <si>
     <t>005.00945115.СЕРВЕТНИК С.В.</t>
@@ -112,127 +100,85 @@
     <t>62Z5893189794685</t>
   </si>
   <si>
-    <t>025672</t>
-  </si>
-  <si>
-    <t>006.00945120.ПОПО��А Я.О.</t>
+    <t>006.00945120.ПОПОВА Я.О.</t>
   </si>
   <si>
     <t>62Z5205631036300</t>
   </si>
   <si>
-    <t>025719</t>
-  </si>
-  <si>
     <t>007.00945121.ПОПОВА Я.О.</t>
   </si>
   <si>
     <t>62Z8288687001730</t>
   </si>
   <si>
-    <t>025720</t>
-  </si>
-  <si>
     <t>008.00945122.ПОПОВА Я.О.</t>
   </si>
   <si>
     <t>62Z6201775632360</t>
   </si>
   <si>
-    <t>025718</t>
-  </si>
-  <si>
     <t>009.00945123.ЮРАСЕВА В.В.</t>
   </si>
   <si>
     <t>62Z0218357970098</t>
   </si>
   <si>
-    <t>025708</t>
-  </si>
-  <si>
     <t>010.00945124.ПОПОВА Я.О.</t>
   </si>
   <si>
     <t>62Z5136253241363</t>
   </si>
   <si>
-    <t>025706</t>
-  </si>
-  <si>
     <t>011.00945125.БИЛЬКО Г.Н.</t>
   </si>
   <si>
     <t>62Z9537629441825</t>
   </si>
   <si>
-    <t>025707</t>
-  </si>
-  <si>
     <t>012.00945127.ЗІНЕНКО Н.В.</t>
   </si>
   <si>
     <t>62Z2459797380736</t>
   </si>
   <si>
-    <t>025717</t>
-  </si>
-  <si>
     <t>013.00945129.ГОРШКОВА Е.П.</t>
   </si>
   <si>
     <t>62Z6371191952007</t>
   </si>
   <si>
-    <t>025709</t>
-  </si>
-  <si>
     <t>014.00945130.ПОПОВА Я.О.</t>
   </si>
   <si>
     <t>62Z4681390547409</t>
   </si>
   <si>
-    <t>025716</t>
-  </si>
-  <si>
     <t>015.00945131.РУДЧЕНКО С.А.</t>
   </si>
   <si>
     <t>62Z6693629088220</t>
   </si>
   <si>
-    <t>025703</t>
-  </si>
-  <si>
     <t>016.00945133.ПОПОВА Я.О.</t>
   </si>
   <si>
     <t>62Z3687200860236</t>
   </si>
   <si>
-    <t>025702</t>
-  </si>
-  <si>
     <t>017.00945134.ЗІНЕНКО Н.В.</t>
   </si>
   <si>
     <t>62Z1920094906607</t>
   </si>
   <si>
-    <t>025701</t>
-  </si>
-  <si>
     <t>018.00945135.БІЛЬКО Г.М.</t>
   </si>
   <si>
     <t>62Z3205418492350</t>
   </si>
   <si>
-    <t>025661</t>
-  </si>
-  <si>
-    <t>019.00945136.ПОПО��А Я.О.</t>
+    <t>019.00945136.ПОПОВА Я.О.</t>
   </si>
   <si>
     <t>62Z2231064802018</t>
@@ -247,336 +193,222 @@
     <t>62Z3282418317444</t>
   </si>
   <si>
-    <t>025662</t>
-  </si>
-  <si>
     <t>021.00945138.ПОПОВА Я.О.</t>
   </si>
   <si>
     <t>62Z5495395844410</t>
   </si>
   <si>
-    <t>025710</t>
-  </si>
-  <si>
     <t>022.00945139.ПОПОВА Я.О.</t>
   </si>
   <si>
     <t>62Z9854655194722</t>
   </si>
   <si>
-    <t>025704</t>
-  </si>
-  <si>
     <t>023.00945140.ПОПОВА Я.О.</t>
   </si>
   <si>
     <t>62Z0245104180559</t>
   </si>
   <si>
-    <t>025705</t>
-  </si>
-  <si>
     <t>024.00945141.СОРОКІН А.О.</t>
   </si>
   <si>
     <t>62Z7036597666227</t>
   </si>
   <si>
-    <t>025664</t>
-  </si>
-  <si>
     <t>025.00945300.ПОДГУРСЬКИЙ І.В.</t>
   </si>
   <si>
     <t>62Z4065709403161</t>
   </si>
   <si>
-    <t>025712</t>
-  </si>
-  <si>
     <t>026.00945142.ЧЕБОТАЕВА И.Г.</t>
   </si>
   <si>
     <t>62Z1095011678473</t>
   </si>
   <si>
-    <t>025794</t>
-  </si>
-  <si>
     <t>027.00945143.СКОТАРЕНКО Л.Г.</t>
   </si>
   <si>
     <t>62Z3570327173550</t>
   </si>
   <si>
-    <t>025800</t>
-  </si>
-  <si>
     <t>028.00945144.СКОТАРЕНКО Л.Г.</t>
   </si>
   <si>
     <t>62Z6877919376317</t>
   </si>
   <si>
-    <t>025736</t>
-  </si>
-  <si>
     <t>029.00945145.КОРОЛЬ В.А.</t>
   </si>
   <si>
     <t>62Z0299355862318</t>
   </si>
   <si>
-    <t>025751</t>
-  </si>
-  <si>
     <t>030.00945146.ПАЩЕНКО Р.В.</t>
   </si>
   <si>
     <t>62Z1312823477752</t>
   </si>
   <si>
-    <t>025785</t>
-  </si>
-  <si>
     <t>031.00945147.ЛИПОВИЙ О.С.</t>
   </si>
   <si>
     <t>62Z6817847961754</t>
   </si>
   <si>
-    <t>025786</t>
-  </si>
-  <si>
     <t>032.00945148.ЛИПОВИЙ О.С.</t>
   </si>
   <si>
     <t>62Z4088611812639</t>
   </si>
   <si>
-    <t>025765</t>
-  </si>
-  <si>
     <t>033.00945149.КУТАС О.В.</t>
   </si>
   <si>
     <t>62Z2939895550791</t>
   </si>
   <si>
-    <t>025764</t>
-  </si>
-  <si>
     <t>034.00945302.ЛИСЯК С.І.</t>
   </si>
   <si>
     <t>62Z6387517702485</t>
   </si>
   <si>
-    <t>025762</t>
-  </si>
-  <si>
     <t>035.00945303.ЗЕМЛЯНА І.Л.</t>
   </si>
   <si>
     <t>62Z4062264395653</t>
   </si>
   <si>
-    <t>023672</t>
-  </si>
-  <si>
     <t>036.00945152.ЗЕМЛЯНА І.Л.</t>
   </si>
   <si>
     <t>62Z4677825241609</t>
   </si>
   <si>
-    <t>025675</t>
-  </si>
-  <si>
     <t>037.00945157.КОНОВАЛОВА Н.М.</t>
   </si>
   <si>
     <t>62Z0082923706340</t>
   </si>
   <si>
-    <t>023675</t>
-  </si>
-  <si>
     <t>038.00945158.ПОКИДЬКО О.Ю.</t>
   </si>
   <si>
     <t>62Z3107382858322</t>
   </si>
   <si>
-    <t>025799</t>
-  </si>
-  <si>
     <t>039.00945159.ПОПОВА Я.О.</t>
   </si>
   <si>
     <t>62Z1536379941458</t>
   </si>
   <si>
-    <t>025790</t>
-  </si>
-  <si>
     <t>040.00945160.ПОПОВА Я.О.</t>
   </si>
   <si>
     <t>62Z8173219702069</t>
   </si>
   <si>
-    <t>025767</t>
-  </si>
-  <si>
     <t>041.00945161.ГЛУБОКАЯ А.А.</t>
   </si>
   <si>
     <t>62Z6666002197135</t>
   </si>
   <si>
-    <t>025768</t>
-  </si>
-  <si>
     <t>042.00945162.ТОПЧІЄВ О.О.</t>
   </si>
   <si>
     <t>62Z0250994979495</t>
   </si>
   <si>
-    <t>СИСТЕ��А OE-009 NFH</t>
-  </si>
-  <si>
-    <t>025795</t>
-  </si>
-  <si>
     <t>043.00945163.КОВАЛЬОВ О.В.</t>
   </si>
   <si>
     <t>62Z4952640766759</t>
   </si>
   <si>
-    <t>025763</t>
-  </si>
-  <si>
     <t>044.00945164.КОВАЛЬОВ О.В.</t>
   </si>
   <si>
     <t>62Z5252102021923</t>
   </si>
   <si>
-    <t>025774</t>
-  </si>
-  <si>
     <t>045.00945165.РЄПІН А.О.</t>
   </si>
   <si>
     <t>62Z5008707202573</t>
   </si>
   <si>
-    <t>025781</t>
-  </si>
-  <si>
     <t>046.00945166.СОРОКІН А.О.</t>
   </si>
   <si>
     <t>62Z5458540050922</t>
   </si>
   <si>
-    <t>025778</t>
-  </si>
-  <si>
     <t>047.00945167.ЄВДОШЕНКО О.Ю.</t>
   </si>
   <si>
     <t>62Z4463711999985</t>
   </si>
   <si>
-    <t>025680</t>
-  </si>
-  <si>
     <t>048.00945169.ДОНЧАК Ю.Д.</t>
   </si>
   <si>
     <t>62Z9090376742894</t>
   </si>
   <si>
-    <t>025711</t>
-  </si>
-  <si>
     <t>049.00945170.НЕВЕЛИКИЙ І.В.</t>
   </si>
   <si>
     <t>62Z0246549458591</t>
   </si>
   <si>
-    <t>023673</t>
-  </si>
-  <si>
     <t>050.00945171.ЖЕГУС О.В.</t>
   </si>
   <si>
     <t>62Z5578388002521</t>
   </si>
   <si>
-    <t>023690</t>
-  </si>
-  <si>
     <t>051.00945172.ПОПОВА Я.О.</t>
   </si>
   <si>
     <t>62Z5468740090077</t>
   </si>
   <si>
-    <t>023682</t>
-  </si>
-  <si>
     <t>052.00945176.КОРОЛЬ В..</t>
   </si>
   <si>
     <t>62Z7878185578520</t>
   </si>
   <si>
-    <t>023676</t>
-  </si>
-  <si>
     <t>053.00945178.КОРОЛЬ В..</t>
   </si>
   <si>
     <t>62Z5445245652248</t>
   </si>
   <si>
-    <t>023684</t>
-  </si>
-  <si>
     <t>054.00945180.КОРОЛЬ В.А.</t>
   </si>
   <si>
     <t>62Z2118466223165</t>
   </si>
   <si>
-    <t>023694</t>
-  </si>
-  <si>
     <t>055.00945181.ПОПОВА Я.О.</t>
   </si>
   <si>
     <t>62Z9540384685506</t>
   </si>
   <si>
-    <t>025769</t>
-  </si>
-  <si>
     <t>056.00945182.ПОПОВА Я.О.</t>
   </si>
   <si>
     <t>62Z1810442811142</t>
   </si>
   <si>
-    <t>025797</t>
-  </si>
-  <si>
     <t>057.00945185.ПОПОВА Я.О.</t>
   </si>
   <si>
@@ -592,718 +424,478 @@
     <t>62Z3015239885809</t>
   </si>
   <si>
-    <t>025791</t>
-  </si>
-  <si>
     <t>059.00945193.ШЕВЧУК В.В.</t>
   </si>
   <si>
     <t>62Z8778031977749</t>
   </si>
   <si>
-    <t>025792</t>
-  </si>
-  <si>
     <t>060.00945194.ЖИЛІН С.В.</t>
   </si>
   <si>
     <t>62Z1914013566614</t>
   </si>
   <si>
-    <t>025729</t>
-  </si>
-  <si>
     <t>061.00945195.ЖИЛІН С.В.</t>
   </si>
   <si>
     <t>62Z0215327232168</t>
   </si>
   <si>
-    <t>025775</t>
-  </si>
-  <si>
     <t>062.00945196.ПОПОВА Я.О.</t>
   </si>
   <si>
     <t>62Z4253136438952</t>
   </si>
   <si>
-    <t>025770</t>
-  </si>
-  <si>
     <t>063.00945197.ЯКОВЕНКО В.А.</t>
   </si>
   <si>
     <t>62Z6783558659150</t>
   </si>
   <si>
-    <t>025783</t>
-  </si>
-  <si>
-    <t>064.00945198.ПОПО��А Я.О.</t>
+    <t>064.00945198.ПОПОВА Я.О.</t>
   </si>
   <si>
     <t>62Z1949520188187</t>
   </si>
   <si>
-    <t>023681</t>
-  </si>
-  <si>
     <t>065.00945200.ЛІСОВИК А.Ю.</t>
   </si>
   <si>
     <t>62Z3417153795951</t>
   </si>
   <si>
-    <t>023671</t>
-  </si>
-  <si>
     <t>066.00945201.ПОПОВА Я.О.</t>
   </si>
   <si>
     <t>62Z0389207736425</t>
   </si>
   <si>
-    <t>023677</t>
-  </si>
-  <si>
     <t>067.00945202.ХРАМЦОВ Ю.В.</t>
   </si>
   <si>
     <t>62Z0230722861945</t>
   </si>
   <si>
-    <t>023674</t>
-  </si>
-  <si>
     <t>068.00945203.КУДЕНКО Ю.В.</t>
   </si>
   <si>
     <t>62Z6765162531434</t>
   </si>
   <si>
-    <t>023680</t>
-  </si>
-  <si>
     <t>069.00945204.БУРЛАКОВА К.О.</t>
   </si>
   <si>
     <t>62Z5072146591507</t>
   </si>
   <si>
-    <t>025733</t>
-  </si>
-  <si>
     <t>070.00945205.КОЖИНА И.Н.</t>
   </si>
   <si>
     <t>62Z7750782108969</t>
   </si>
   <si>
-    <t>025714</t>
-  </si>
-  <si>
     <t>071.00945206.ЕРЕМИНА Н.С.</t>
   </si>
   <si>
     <t>62Z6884905693254</t>
   </si>
   <si>
-    <t>025679</t>
-  </si>
-  <si>
     <t>072.00945207.СКЛЯР Н.Н.</t>
   </si>
   <si>
     <t>62Z2113349846064</t>
   </si>
   <si>
-    <t>025732</t>
-  </si>
-  <si>
     <t>073.00945208.ІСАЄВ С.В.</t>
   </si>
   <si>
     <t>62Z0047911707473</t>
   </si>
   <si>
-    <t>025741</t>
-  </si>
-  <si>
     <t>074.00945210.КОШЕЛЕНКО Е.А.</t>
   </si>
   <si>
     <t>62Z0059308603833</t>
   </si>
   <si>
-    <t>025725</t>
-  </si>
-  <si>
     <t>075.00945211.ПОПОВА Я.О.</t>
   </si>
   <si>
     <t>62Z2691595876626</t>
   </si>
   <si>
-    <t>025726</t>
-  </si>
-  <si>
     <t>076.00945213.ПОПОВА Я.О.</t>
   </si>
   <si>
     <t>62Z4917233535988</t>
   </si>
   <si>
-    <t>025793</t>
-  </si>
-  <si>
     <t>077.00945220.ПОПОВА Я.О.</t>
   </si>
   <si>
     <t>62Z6643336967367</t>
   </si>
   <si>
-    <t>025798</t>
-  </si>
-  <si>
     <t>078.00945224.ПОПОВА Я.О.</t>
   </si>
   <si>
     <t>62Z0846673279883</t>
   </si>
   <si>
-    <t>025761</t>
-  </si>
-  <si>
-    <t>079.00945225.РАСТОРГУЄВ А.А.</t>
+    <t>079.00945225.РАСТ��РГУЄВ А.А.</t>
   </si>
   <si>
     <t>62Z0320078360146</t>
   </si>
   <si>
-    <t>025760</t>
-  </si>
-  <si>
     <t>080.00945226.ПОПОВА Я.О.</t>
   </si>
   <si>
     <t>62Z7709525519283</t>
   </si>
   <si>
-    <t>025759</t>
-  </si>
-  <si>
     <t>081.00945227.ВОРОБЙОВ В.В.</t>
   </si>
   <si>
     <t>62Z6902838961977</t>
   </si>
   <si>
-    <t>025742</t>
-  </si>
-  <si>
     <t>082.00945229.КАРПЕНКО О.М.</t>
   </si>
   <si>
     <t>62Z7614692425028</t>
   </si>
   <si>
-    <t>025740</t>
-  </si>
-  <si>
     <t>083.00945230.ПОДЛЕСНАЯ В.В.</t>
   </si>
   <si>
     <t>62Z8060098859215</t>
   </si>
   <si>
-    <t>025734</t>
-  </si>
-  <si>
     <t>084.00945232.ПОДЛЕСНАЯ В.В.</t>
   </si>
   <si>
     <t>62Z9551154218403</t>
   </si>
   <si>
-    <t>023683</t>
-  </si>
-  <si>
     <t>085.00945239.ПОПОВА Я.О.</t>
   </si>
   <si>
     <t>62Z9324345201417</t>
   </si>
   <si>
-    <t>023687</t>
-  </si>
-  <si>
     <t>086.00945242.ПОПОВА Я.О.</t>
   </si>
   <si>
     <t>62Z5783346134322</t>
   </si>
   <si>
-    <t>023679</t>
-  </si>
-  <si>
     <t>087.00945244.ПОПОВА Я.О.</t>
   </si>
   <si>
     <t>62Z4701475053488</t>
   </si>
   <si>
-    <t>023689</t>
-  </si>
-  <si>
     <t>088.00945301.АНПІЛОГОВА Н.В.</t>
   </si>
   <si>
     <t>62Z8805820137922</t>
   </si>
   <si>
-    <t>025674</t>
-  </si>
-  <si>
     <t>089.00945245.ПОПОВА Я.О.</t>
   </si>
   <si>
     <t>62Z9373823604658</t>
   </si>
   <si>
-    <t>023685</t>
-  </si>
-  <si>
     <t>090.00945246.ГАПОНОВ О.В.</t>
   </si>
   <si>
     <t>62Z7791493212245</t>
   </si>
   <si>
-    <t>025673</t>
-  </si>
-  <si>
     <t>091.00945247.АНТОНЧИК А.А.</t>
   </si>
   <si>
     <t>62Z6615650726677</t>
   </si>
   <si>
-    <t>025677</t>
-  </si>
-  <si>
     <t>092.00945251.ПОПОВА Я.О.</t>
   </si>
   <si>
     <t>62Z1197715085427</t>
   </si>
   <si>
-    <t>023686</t>
-  </si>
-  <si>
     <t>093.00945252.КРАМАРЕНКО М.М.</t>
   </si>
   <si>
     <t>62Z2451929709859</t>
   </si>
   <si>
-    <t>025663</t>
-  </si>
-  <si>
     <t>094.00945253.КРАМАРЕНКО М.М.</t>
   </si>
   <si>
     <t>62Z8279594179127</t>
   </si>
   <si>
-    <t>025713</t>
-  </si>
-  <si>
     <t>095.00945254.ПОПОВА Я.О.</t>
   </si>
   <si>
     <t>62Z1892637122792</t>
   </si>
   <si>
-    <t>025787</t>
-  </si>
-  <si>
     <t>096.00945255.ПОЛОЗОВА Л.М.</t>
   </si>
   <si>
     <t>62Z5715506505682</t>
   </si>
   <si>
-    <t>025777</t>
-  </si>
-  <si>
     <t>097.00945256.ПОПОВА Я.О.</t>
   </si>
   <si>
     <t>62Z1933102736247</t>
   </si>
   <si>
-    <t>025771</t>
-  </si>
-  <si>
     <t>098.00945257.ПОПОВА Я.О.</t>
   </si>
   <si>
     <t>62Z0756238971555</t>
   </si>
   <si>
-    <t>023678</t>
-  </si>
-  <si>
     <t>099.00945258.КРАВЧЕНКО Т.В.</t>
   </si>
   <si>
     <t>62Z4376453708282</t>
   </si>
   <si>
-    <t>025773</t>
-  </si>
-  <si>
     <t>100.00945259.БУРЯКОВ А.А.</t>
   </si>
   <si>
     <t>62Z4021592929572</t>
   </si>
   <si>
-    <t>025772</t>
-  </si>
-  <si>
     <t>101.00945260.ВЕРНИГОРА М.С.</t>
   </si>
   <si>
     <t>62Z1399532492612</t>
   </si>
   <si>
-    <t>025728</t>
-  </si>
-  <si>
     <t>102.00945261.БАЙДАК В.В.</t>
   </si>
   <si>
     <t>62Z4479563531641</t>
   </si>
   <si>
-    <t>025724</t>
-  </si>
-  <si>
     <t>103.00945265.ПОПОВА Я.О.</t>
   </si>
   <si>
     <t>62Z9963688753378</t>
   </si>
   <si>
-    <t>025727</t>
-  </si>
-  <si>
     <t>104.00945266.ПОПОВА Я.О.</t>
   </si>
   <si>
     <t>62Z0569457895848</t>
   </si>
   <si>
-    <t>025744</t>
-  </si>
-  <si>
     <t>105.00945267.ПОПОВА Я.О.</t>
   </si>
   <si>
     <t>62Z3246878966681</t>
   </si>
   <si>
-    <t>025722</t>
-  </si>
-  <si>
     <t>106.00945268.ПОПОВА Я.О.</t>
   </si>
   <si>
     <t>62Z6407883628640</t>
   </si>
   <si>
-    <t>025721</t>
-  </si>
-  <si>
     <t>107.00945269.ЗАГОРУЙКО І.Г.</t>
   </si>
   <si>
     <t>62Z4456884940881</t>
   </si>
   <si>
-    <t>025784</t>
-  </si>
-  <si>
     <t>108.00945270.ПОПОВА Я.О.</t>
   </si>
   <si>
     <t>62Z2458707968513</t>
   </si>
   <si>
-    <t>025780</t>
-  </si>
-  <si>
-    <t>109.00945272.ЦАПЕНКО А.М.</t>
+    <t>109.00945272.��АПЕНКО А.М.</t>
   </si>
   <si>
     <t>62Z4148137705224</t>
   </si>
   <si>
-    <t>025779</t>
-  </si>
-  <si>
     <t>110.00945273.ПОПОВА Я.О.</t>
   </si>
   <si>
     <t>62Z7723260375332</t>
   </si>
   <si>
-    <t>025730</t>
-  </si>
-  <si>
     <t>111.00945274.ОСОВЕЦЬ В.І.</t>
   </si>
   <si>
     <t>62Z1368469150018</t>
   </si>
   <si>
-    <t>025782</t>
-  </si>
-  <si>
     <t>112.00945275.БОЖКО А.В.</t>
   </si>
   <si>
     <t>62Z4228799139266</t>
   </si>
   <si>
-    <t>025776</t>
-  </si>
-  <si>
     <t>113.00945276.ПОПОВА Я.О.</t>
   </si>
   <si>
     <t>62Z9136770202175</t>
   </si>
   <si>
-    <t>025752</t>
-  </si>
-  <si>
     <t>114.00945277.КРИВЕНКО М.О.</t>
   </si>
   <si>
     <t>62Z7331789392721</t>
   </si>
   <si>
-    <t>025731</t>
-  </si>
-  <si>
     <t>115.00945278.ПОГОРЕЛОВА И.С.</t>
   </si>
   <si>
     <t>62Z9194207941112</t>
   </si>
   <si>
-    <t>025723</t>
-  </si>
-  <si>
     <t>116.00945279.РУДЕНКО О.Е.</t>
   </si>
   <si>
     <t>62Z4852704085203</t>
   </si>
   <si>
-    <t>044451</t>
-  </si>
-  <si>
     <t>117.00945188.РУДЕНКО О.Е.</t>
   </si>
   <si>
     <t>62Z5246605867840</t>
   </si>
   <si>
-    <t>055904</t>
-  </si>
-  <si>
     <t>118.00945214.РУДЕНКО О.Е.</t>
   </si>
   <si>
     <t>62Z5768366323947</t>
   </si>
   <si>
-    <t>055903</t>
-  </si>
-  <si>
     <t>119.00509170.РУДЕНКО О.Е.</t>
   </si>
   <si>
     <t>62Z6130209572670</t>
   </si>
   <si>
-    <t>055908</t>
-  </si>
-  <si>
     <t>120.00945102.РУДЕНКО О.Е.</t>
   </si>
   <si>
     <t>62Z4155088625480</t>
   </si>
   <si>
-    <t>055902</t>
-  </si>
-  <si>
     <t>121.00945117.КРАМАРЕНКО П.Н.</t>
   </si>
   <si>
     <t>62Z9191681009530</t>
   </si>
   <si>
-    <t>055907</t>
-  </si>
-  <si>
     <t>122.00945179.КРАМАРЕНКО П.Н.</t>
   </si>
   <si>
     <t>62Z1520819971217</t>
   </si>
   <si>
-    <t>055901</t>
-  </si>
-  <si>
     <t>123.00945183.КРАМАРЕНКО П.Н.</t>
   </si>
   <si>
     <t>62Z6634823770977</t>
   </si>
   <si>
-    <t>055906</t>
-  </si>
-  <si>
     <t>124.00945186.КРАМАРЕНКО П.Н.</t>
   </si>
   <si>
     <t>62Z2261690035183</t>
   </si>
   <si>
-    <t>055909</t>
-  </si>
-  <si>
     <t>125.00945280.ФОРШТАК С.В.</t>
   </si>
   <si>
     <t>62Z6947849776780</t>
   </si>
   <si>
-    <t>044453</t>
-  </si>
-  <si>
     <t>126.00945288.РУДЕНКО О.Е.</t>
   </si>
   <si>
     <t>62Z4983542557769</t>
   </si>
   <si>
-    <t>044452</t>
-  </si>
-  <si>
     <t>127.00945217.РУДЕНКО О.Е.</t>
   </si>
   <si>
     <t>62Z5386490268373</t>
   </si>
   <si>
-    <t>055920</t>
-  </si>
-  <si>
     <t>128.00945250.РУДЕНКО О.Е.</t>
   </si>
   <si>
     <t>62Z6806089612131</t>
   </si>
   <si>
-    <t>055919</t>
-  </si>
-  <si>
     <t>129.00945262.РУДЕНКО О.Е.</t>
   </si>
   <si>
     <t>62Z2501056680244</t>
   </si>
   <si>
-    <t>055917</t>
-  </si>
-  <si>
     <t>130.00945263.РУДЕНКО О.Е.</t>
   </si>
   <si>
     <t>62Z1927398559762</t>
   </si>
   <si>
-    <t>055912</t>
-  </si>
-  <si>
     <t>131.00945264.РУДЕНКО О.Е.</t>
   </si>
   <si>
     <t>62Z4250057440788</t>
   </si>
   <si>
-    <t>055871</t>
-  </si>
-  <si>
     <t>132.00945285.КРАМАРЕНКО П.Н.</t>
   </si>
   <si>
     <t>62Z2897348790595</t>
   </si>
   <si>
-    <t>055910</t>
-  </si>
-  <si>
     <t>133.00945290.КРАМАРЕНКО П.Н.</t>
   </si>
   <si>
     <t>62Z5362543690170</t>
   </si>
   <si>
-    <t>055925</t>
-  </si>
-  <si>
     <t>134.00945295.КРАМАРЕНКО П.Н.</t>
   </si>
   <si>
     <t>62Z5125050422792</t>
   </si>
   <si>
-    <t>055911</t>
-  </si>
-  <si>
     <t>135.00945296.КРАМАРЕНКО П.Н.</t>
   </si>
   <si>
     <t>62Z3175344064487</t>
   </si>
   <si>
-    <t>055918</t>
-  </si>
-  <si>
     <t>136.00945298.КРАМАРЕНКО П.Н.</t>
   </si>
   <si>
     <t>62Z3341469484528</t>
   </si>
   <si>
-    <t>055913</t>
-  </si>
-  <si>
     <t>137.00945289.КРАМАРЕНКО П.М.</t>
   </si>
   <si>
     <t>62Z2366635429889</t>
-  </si>
-  <si>
-    <t>044454</t>
   </si>
   <si>
     <t>001.вул.Молодої гвардії, 4, житловий будинок</t>
@@ -1811,11 +1403,11 @@
       <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
-        <v>19</v>
+      <c r="F3">
+        <v>25666</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3">
         <v>10439</v>
@@ -1850,19 +1442,19 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>25669</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>15431</v>
@@ -1897,19 +1489,19 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>25676</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <v>11652</v>
@@ -1944,19 +1536,19 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="F6">
+        <v>25668</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <v>13301</v>
@@ -1991,19 +1583,19 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>25672</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H7">
         <v>12351</v>
@@ -2038,19 +1630,19 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
+        <v>18</v>
+      </c>
+      <c r="F8">
+        <v>25719</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8">
         <v>5700</v>
@@ -2085,19 +1677,19 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" t="s">
-        <v>39</v>
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <v>25720</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9">
         <v>18628</v>
@@ -2132,19 +1724,19 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>42</v>
+        <v>18</v>
+      </c>
+      <c r="F10">
+        <v>25718</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H10">
         <v>8279</v>
@@ -2179,19 +1771,19 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" t="s">
-        <v>45</v>
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <v>25708</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H11">
         <v>4577</v>
@@ -2226,19 +1818,19 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>48</v>
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>25706</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H12">
         <v>12337</v>
@@ -2273,19 +1865,19 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" t="s">
-        <v>51</v>
+        <v>18</v>
+      </c>
+      <c r="F13">
+        <v>25707</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H13">
         <v>14102</v>
@@ -2320,19 +1912,19 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" t="s">
-        <v>54</v>
+        <v>18</v>
+      </c>
+      <c r="F14">
+        <v>25717</v>
       </c>
       <c r="G14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H14">
         <v>12329</v>
@@ -2367,19 +1959,19 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" t="s">
-        <v>57</v>
+        <v>18</v>
+      </c>
+      <c r="F15">
+        <v>25709</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H15">
         <v>14949</v>
@@ -2414,19 +2006,19 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" t="s">
-        <v>60</v>
+        <v>18</v>
+      </c>
+      <c r="F16">
+        <v>25716</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H16">
         <v>10601</v>
@@ -2461,19 +2053,19 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" t="s">
-        <v>63</v>
+        <v>18</v>
+      </c>
+      <c r="F17">
+        <v>25703</v>
       </c>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H17">
         <v>13787</v>
@@ -2508,19 +2100,19 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" t="s">
-        <v>66</v>
+        <v>18</v>
+      </c>
+      <c r="F18">
+        <v>25702</v>
       </c>
       <c r="G18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H18">
         <v>11151</v>
@@ -2555,19 +2147,19 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" t="s">
-        <v>69</v>
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <v>25701</v>
       </c>
       <c r="G19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H19">
         <v>16417</v>
@@ -2602,19 +2194,19 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" t="s">
-        <v>72</v>
+        <v>18</v>
+      </c>
+      <c r="F20">
+        <v>25661</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H20">
         <v>12470</v>
@@ -2649,19 +2241,19 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="E21" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="F21">
         <v>8746645</v>
       </c>
       <c r="G21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H21">
         <v>15002</v>
@@ -2696,19 +2288,19 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" t="s">
-        <v>78</v>
+        <v>18</v>
+      </c>
+      <c r="F22">
+        <v>25662</v>
       </c>
       <c r="G22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H22">
         <v>15181</v>
@@ -2743,19 +2335,19 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="E23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" t="s">
-        <v>81</v>
+        <v>18</v>
+      </c>
+      <c r="F23">
+        <v>25710</v>
       </c>
       <c r="G23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H23">
         <v>16857</v>
@@ -2790,19 +2382,19 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="E24" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" t="s">
-        <v>84</v>
+        <v>18</v>
+      </c>
+      <c r="F24">
+        <v>25704</v>
       </c>
       <c r="G24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H24">
         <v>8572</v>
@@ -2837,19 +2429,19 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D25" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" t="s">
-        <v>87</v>
+        <v>18</v>
+      </c>
+      <c r="F25">
+        <v>25705</v>
       </c>
       <c r="G25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H25">
         <v>9696</v>
@@ -2884,19 +2476,19 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="D26" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="E26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" t="s">
-        <v>90</v>
+        <v>18</v>
+      </c>
+      <c r="F26">
+        <v>25664</v>
       </c>
       <c r="G26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H26">
         <v>15595</v>
@@ -2931,19 +2523,19 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D27" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="E27" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" t="s">
-        <v>93</v>
+        <v>18</v>
+      </c>
+      <c r="F27">
+        <v>25712</v>
       </c>
       <c r="G27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H27">
         <v>14741</v>
@@ -2978,19 +2570,19 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="D28" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="E28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" t="s">
-        <v>96</v>
+        <v>18</v>
+      </c>
+      <c r="F28">
+        <v>25794</v>
       </c>
       <c r="G28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H28">
         <v>9534</v>
@@ -3025,19 +2617,19 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D29" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="E29" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" t="s">
-        <v>99</v>
+        <v>18</v>
+      </c>
+      <c r="F29">
+        <v>25800</v>
       </c>
       <c r="G29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3072,19 +2664,19 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="E30" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" t="s">
-        <v>102</v>
+        <v>18</v>
+      </c>
+      <c r="F30">
+        <v>25736</v>
       </c>
       <c r="G30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H30">
         <v>7610</v>
@@ -3119,19 +2711,19 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="D31" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="E31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31" t="s">
-        <v>105</v>
+        <v>18</v>
+      </c>
+      <c r="F31">
+        <v>25751</v>
       </c>
       <c r="G31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H31">
         <v>10482</v>
@@ -3166,19 +2758,19 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="D32" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="E32" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32" t="s">
-        <v>108</v>
+        <v>18</v>
+      </c>
+      <c r="F32">
+        <v>25785</v>
       </c>
       <c r="G32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H32">
         <v>13494</v>
@@ -3213,19 +2805,19 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="D33" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="E33" t="s">
-        <v>23</v>
-      </c>
-      <c r="F33" t="s">
-        <v>111</v>
+        <v>18</v>
+      </c>
+      <c r="F33">
+        <v>25786</v>
       </c>
       <c r="G33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H33">
         <v>16146</v>
@@ -3260,19 +2852,19 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="D34" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="E34" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34" t="s">
-        <v>114</v>
+        <v>18</v>
+      </c>
+      <c r="F34">
+        <v>25765</v>
       </c>
       <c r="G34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H34">
         <v>16239</v>
@@ -3307,19 +2899,19 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="D35" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="E35" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" t="s">
-        <v>117</v>
+        <v>18</v>
+      </c>
+      <c r="F35">
+        <v>25764</v>
       </c>
       <c r="G35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H35">
         <v>9970</v>
@@ -3354,19 +2946,19 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="D36" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="E36" t="s">
-        <v>23</v>
-      </c>
-      <c r="F36" t="s">
-        <v>120</v>
+        <v>18</v>
+      </c>
+      <c r="F36">
+        <v>25762</v>
       </c>
       <c r="G36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H36">
         <v>11842</v>
@@ -3401,19 +2993,19 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="D37" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="E37" t="s">
-        <v>23</v>
-      </c>
-      <c r="F37" t="s">
-        <v>123</v>
+        <v>18</v>
+      </c>
+      <c r="F37">
+        <v>23672</v>
       </c>
       <c r="G37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H37">
         <v>12963</v>
@@ -3448,19 +3040,19 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="D38" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="E38" t="s">
-        <v>23</v>
-      </c>
-      <c r="F38" t="s">
-        <v>126</v>
+        <v>18</v>
+      </c>
+      <c r="F38">
+        <v>25675</v>
       </c>
       <c r="G38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H38">
         <v>10812</v>
@@ -3495,19 +3087,19 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="D39" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="E39" t="s">
-        <v>23</v>
-      </c>
-      <c r="F39" t="s">
-        <v>129</v>
+        <v>18</v>
+      </c>
+      <c r="F39">
+        <v>23675</v>
       </c>
       <c r="G39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H39">
         <v>10085</v>
@@ -3542,19 +3134,19 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="D40" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="E40" t="s">
-        <v>23</v>
-      </c>
-      <c r="F40" t="s">
-        <v>132</v>
+        <v>18</v>
+      </c>
+      <c r="F40">
+        <v>25799</v>
       </c>
       <c r="G40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H40">
         <v>13941</v>
@@ -3589,19 +3181,19 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="D41" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="E41" t="s">
-        <v>23</v>
-      </c>
-      <c r="F41" t="s">
-        <v>135</v>
+        <v>18</v>
+      </c>
+      <c r="F41">
+        <v>25790</v>
       </c>
       <c r="G41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H41">
         <v>8997</v>
@@ -3636,19 +3228,19 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="D42" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="E42" t="s">
-        <v>23</v>
-      </c>
-      <c r="F42" t="s">
-        <v>138</v>
+        <v>18</v>
+      </c>
+      <c r="F42">
+        <v>25767</v>
       </c>
       <c r="G42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H42">
         <v>12933</v>
@@ -3683,19 +3275,19 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="D43" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="E43" t="s">
-        <v>23</v>
-      </c>
-      <c r="F43" t="s">
-        <v>141</v>
+        <v>18</v>
+      </c>
+      <c r="F43">
+        <v>25768</v>
       </c>
       <c r="G43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H43">
         <v>15351</v>
@@ -3730,19 +3322,19 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="D44" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="E44" t="s">
-        <v>144</v>
-      </c>
-      <c r="F44" t="s">
-        <v>145</v>
+        <v>18</v>
+      </c>
+      <c r="F44">
+        <v>25795</v>
       </c>
       <c r="G44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H44">
         <v>20829</v>
@@ -3777,19 +3369,19 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="D45" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="E45" t="s">
-        <v>23</v>
-      </c>
-      <c r="F45" t="s">
-        <v>148</v>
+        <v>18</v>
+      </c>
+      <c r="F45">
+        <v>25763</v>
       </c>
       <c r="G45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H45">
         <v>15381</v>
@@ -3824,19 +3416,19 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="D46" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="E46" t="s">
-        <v>23</v>
-      </c>
-      <c r="F46" t="s">
-        <v>151</v>
+        <v>18</v>
+      </c>
+      <c r="F46">
+        <v>25774</v>
       </c>
       <c r="G46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H46">
         <v>15017</v>
@@ -3871,19 +3463,19 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="D47" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="E47" t="s">
-        <v>23</v>
-      </c>
-      <c r="F47" t="s">
-        <v>154</v>
+        <v>18</v>
+      </c>
+      <c r="F47">
+        <v>25781</v>
       </c>
       <c r="G47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H47">
         <v>15358</v>
@@ -3918,19 +3510,19 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="D48" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="E48" t="s">
-        <v>23</v>
-      </c>
-      <c r="F48" t="s">
-        <v>157</v>
+        <v>18</v>
+      </c>
+      <c r="F48">
+        <v>25778</v>
       </c>
       <c r="G48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H48">
         <v>17118</v>
@@ -3965,19 +3557,19 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="D49" t="s">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c r="E49" t="s">
-        <v>23</v>
-      </c>
-      <c r="F49" t="s">
-        <v>160</v>
+        <v>18</v>
+      </c>
+      <c r="F49">
+        <v>25680</v>
       </c>
       <c r="G49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H49">
         <v>7755</v>
@@ -4012,19 +3604,19 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="D50" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="E50" t="s">
-        <v>23</v>
-      </c>
-      <c r="F50" t="s">
-        <v>163</v>
+        <v>18</v>
+      </c>
+      <c r="F50">
+        <v>25711</v>
       </c>
       <c r="G50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H50">
         <v>22095</v>
@@ -4059,19 +3651,19 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="D51" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="E51" t="s">
-        <v>23</v>
-      </c>
-      <c r="F51" t="s">
-        <v>166</v>
+        <v>18</v>
+      </c>
+      <c r="F51">
+        <v>23673</v>
       </c>
       <c r="G51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H51">
         <v>16265</v>
@@ -4106,19 +3698,19 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="D52" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="E52" t="s">
-        <v>23</v>
-      </c>
-      <c r="F52" t="s">
-        <v>169</v>
+        <v>18</v>
+      </c>
+      <c r="F52">
+        <v>23690</v>
       </c>
       <c r="G52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H52">
         <v>15644</v>
@@ -4153,19 +3745,19 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="D53" t="s">
-        <v>171</v>
+        <v>121</v>
       </c>
       <c r="E53" t="s">
-        <v>23</v>
-      </c>
-      <c r="F53" t="s">
-        <v>172</v>
+        <v>18</v>
+      </c>
+      <c r="F53">
+        <v>23682</v>
       </c>
       <c r="G53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H53">
         <v>15074</v>
@@ -4200,19 +3792,19 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>173</v>
+        <v>122</v>
       </c>
       <c r="D54" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c r="E54" t="s">
-        <v>23</v>
-      </c>
-      <c r="F54" t="s">
-        <v>175</v>
+        <v>18</v>
+      </c>
+      <c r="F54">
+        <v>23676</v>
       </c>
       <c r="G54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H54">
         <v>9809</v>
@@ -4247,19 +3839,19 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>176</v>
+        <v>124</v>
       </c>
       <c r="D55" t="s">
-        <v>177</v>
+        <v>125</v>
       </c>
       <c r="E55" t="s">
-        <v>23</v>
-      </c>
-      <c r="F55" t="s">
-        <v>178</v>
+        <v>18</v>
+      </c>
+      <c r="F55">
+        <v>23684</v>
       </c>
       <c r="G55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H55">
         <v>9789</v>
@@ -4294,19 +3886,19 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
       <c r="D56" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="E56" t="s">
-        <v>23</v>
-      </c>
-      <c r="F56" t="s">
-        <v>181</v>
+        <v>18</v>
+      </c>
+      <c r="F56">
+        <v>23694</v>
       </c>
       <c r="G56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H56">
         <v>10512</v>
@@ -4341,19 +3933,19 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="D57" t="s">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="E57" t="s">
-        <v>23</v>
-      </c>
-      <c r="F57" t="s">
-        <v>184</v>
+        <v>18</v>
+      </c>
+      <c r="F57">
+        <v>25769</v>
       </c>
       <c r="G57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H57">
         <v>10505</v>
@@ -4388,19 +3980,19 @@
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="D58" t="s">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="E58" t="s">
-        <v>23</v>
-      </c>
-      <c r="F58" t="s">
-        <v>187</v>
+        <v>18</v>
+      </c>
+      <c r="F58">
+        <v>25797</v>
       </c>
       <c r="G58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H58">
         <v>11586</v>
@@ -4435,19 +4027,19 @@
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>188</v>
+        <v>132</v>
       </c>
       <c r="D59" t="s">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="E59" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="F59">
         <v>20038989</v>
       </c>
       <c r="G59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H59">
         <v>616</v>
@@ -4482,19 +4074,19 @@
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>191</v>
+        <v>135</v>
       </c>
       <c r="D60" t="s">
-        <v>192</v>
+        <v>136</v>
       </c>
       <c r="E60" t="s">
-        <v>23</v>
-      </c>
-      <c r="F60" t="s">
-        <v>193</v>
+        <v>18</v>
+      </c>
+      <c r="F60">
+        <v>25791</v>
       </c>
       <c r="G60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H60">
         <v>13818</v>
@@ -4529,19 +4121,19 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>194</v>
+        <v>137</v>
       </c>
       <c r="D61" t="s">
-        <v>195</v>
+        <v>138</v>
       </c>
       <c r="E61" t="s">
-        <v>23</v>
-      </c>
-      <c r="F61" t="s">
-        <v>196</v>
+        <v>18</v>
+      </c>
+      <c r="F61">
+        <v>25792</v>
       </c>
       <c r="G61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H61">
         <v>12181</v>
@@ -4576,19 +4168,19 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>197</v>
+        <v>139</v>
       </c>
       <c r="D62" t="s">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="E62" t="s">
-        <v>23</v>
-      </c>
-      <c r="F62" t="s">
-        <v>199</v>
+        <v>18</v>
+      </c>
+      <c r="F62">
+        <v>25729</v>
       </c>
       <c r="G62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H62">
         <v>20586</v>
@@ -4623,19 +4215,19 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>200</v>
+        <v>141</v>
       </c>
       <c r="D63" t="s">
-        <v>201</v>
+        <v>142</v>
       </c>
       <c r="E63" t="s">
-        <v>23</v>
-      </c>
-      <c r="F63" t="s">
-        <v>202</v>
+        <v>18</v>
+      </c>
+      <c r="F63">
+        <v>25775</v>
       </c>
       <c r="G63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H63">
         <v>12831</v>
@@ -4670,19 +4262,19 @@
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>203</v>
+        <v>143</v>
       </c>
       <c r="D64" t="s">
-        <v>204</v>
+        <v>144</v>
       </c>
       <c r="E64" t="s">
-        <v>23</v>
-      </c>
-      <c r="F64" t="s">
-        <v>205</v>
+        <v>18</v>
+      </c>
+      <c r="F64">
+        <v>25770</v>
       </c>
       <c r="G64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H64">
         <v>15068</v>
@@ -4717,19 +4309,19 @@
         <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>206</v>
+        <v>145</v>
       </c>
       <c r="D65" t="s">
-        <v>207</v>
+        <v>146</v>
       </c>
       <c r="E65" t="s">
-        <v>23</v>
-      </c>
-      <c r="F65" t="s">
-        <v>208</v>
+        <v>18</v>
+      </c>
+      <c r="F65">
+        <v>25783</v>
       </c>
       <c r="G65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H65">
         <v>10908</v>
@@ -4764,19 +4356,19 @@
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>209</v>
+        <v>147</v>
       </c>
       <c r="D66" t="s">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c r="E66" t="s">
-        <v>23</v>
-      </c>
-      <c r="F66" t="s">
-        <v>211</v>
+        <v>18</v>
+      </c>
+      <c r="F66">
+        <v>23681</v>
       </c>
       <c r="G66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H66">
         <v>18946</v>
@@ -4811,19 +4403,19 @@
         <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>212</v>
+        <v>149</v>
       </c>
       <c r="D67" t="s">
-        <v>213</v>
+        <v>150</v>
       </c>
       <c r="E67" t="s">
-        <v>23</v>
-      </c>
-      <c r="F67" t="s">
-        <v>214</v>
+        <v>18</v>
+      </c>
+      <c r="F67">
+        <v>23671</v>
       </c>
       <c r="G67" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H67">
         <v>16110</v>
@@ -4858,19 +4450,19 @@
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>215</v>
+        <v>151</v>
       </c>
       <c r="D68" t="s">
-        <v>216</v>
+        <v>152</v>
       </c>
       <c r="E68" t="s">
-        <v>23</v>
-      </c>
-      <c r="F68" t="s">
-        <v>217</v>
+        <v>18</v>
+      </c>
+      <c r="F68">
+        <v>23677</v>
       </c>
       <c r="G68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H68">
         <v>12759</v>
@@ -4905,19 +4497,19 @@
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>218</v>
+        <v>153</v>
       </c>
       <c r="D69" t="s">
-        <v>219</v>
+        <v>154</v>
       </c>
       <c r="E69" t="s">
-        <v>23</v>
-      </c>
-      <c r="F69" t="s">
-        <v>220</v>
+        <v>18</v>
+      </c>
+      <c r="F69">
+        <v>23674</v>
       </c>
       <c r="G69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H69">
         <v>13863</v>
@@ -4952,19 +4544,19 @@
         <v>1</v>
       </c>
       <c r="C70" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="D70" t="s">
-        <v>222</v>
+        <v>156</v>
       </c>
       <c r="E70" t="s">
-        <v>23</v>
-      </c>
-      <c r="F70" t="s">
-        <v>223</v>
+        <v>18</v>
+      </c>
+      <c r="F70">
+        <v>23680</v>
       </c>
       <c r="G70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H70">
         <v>15344</v>
@@ -4999,19 +4591,19 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>224</v>
+        <v>157</v>
       </c>
       <c r="D71" t="s">
-        <v>225</v>
+        <v>158</v>
       </c>
       <c r="E71" t="s">
-        <v>23</v>
-      </c>
-      <c r="F71" t="s">
-        <v>226</v>
+        <v>18</v>
+      </c>
+      <c r="F71">
+        <v>25733</v>
       </c>
       <c r="G71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H71">
         <v>16336</v>
@@ -5046,19 +4638,19 @@
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>227</v>
+        <v>159</v>
       </c>
       <c r="D72" t="s">
-        <v>228</v>
+        <v>160</v>
       </c>
       <c r="E72" t="s">
-        <v>23</v>
-      </c>
-      <c r="F72" t="s">
-        <v>229</v>
+        <v>18</v>
+      </c>
+      <c r="F72">
+        <v>25714</v>
       </c>
       <c r="G72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H72">
         <v>12646</v>
@@ -5093,19 +4685,19 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>230</v>
+        <v>161</v>
       </c>
       <c r="D73" t="s">
-        <v>231</v>
+        <v>162</v>
       </c>
       <c r="E73" t="s">
-        <v>23</v>
-      </c>
-      <c r="F73" t="s">
-        <v>232</v>
+        <v>18</v>
+      </c>
+      <c r="F73">
+        <v>25679</v>
       </c>
       <c r="G73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H73">
         <v>13918</v>
@@ -5140,19 +4732,19 @@
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>233</v>
+        <v>163</v>
       </c>
       <c r="D74" t="s">
-        <v>234</v>
+        <v>164</v>
       </c>
       <c r="E74" t="s">
-        <v>23</v>
-      </c>
-      <c r="F74" t="s">
-        <v>235</v>
+        <v>18</v>
+      </c>
+      <c r="F74">
+        <v>25732</v>
       </c>
       <c r="G74" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H74">
         <v>10988</v>
@@ -5187,19 +4779,19 @@
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>236</v>
+        <v>165</v>
       </c>
       <c r="D75" t="s">
-        <v>237</v>
+        <v>166</v>
       </c>
       <c r="E75" t="s">
-        <v>23</v>
-      </c>
-      <c r="F75" t="s">
-        <v>238</v>
+        <v>18</v>
+      </c>
+      <c r="F75">
+        <v>25741</v>
       </c>
       <c r="G75" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H75">
         <v>12528</v>
@@ -5234,19 +4826,19 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>239</v>
+        <v>167</v>
       </c>
       <c r="D76" t="s">
-        <v>240</v>
+        <v>168</v>
       </c>
       <c r="E76" t="s">
-        <v>23</v>
-      </c>
-      <c r="F76" t="s">
-        <v>241</v>
+        <v>18</v>
+      </c>
+      <c r="F76">
+        <v>25725</v>
       </c>
       <c r="G76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H76">
         <v>9909</v>
@@ -5281,19 +4873,19 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>242</v>
+        <v>169</v>
       </c>
       <c r="D77" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="E77" t="s">
-        <v>23</v>
-      </c>
-      <c r="F77" t="s">
-        <v>244</v>
+        <v>18</v>
+      </c>
+      <c r="F77">
+        <v>25726</v>
       </c>
       <c r="G77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H77">
         <v>13697</v>
@@ -5328,19 +4920,19 @@
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>245</v>
+        <v>171</v>
       </c>
       <c r="D78" t="s">
-        <v>246</v>
+        <v>172</v>
       </c>
       <c r="E78" t="s">
-        <v>23</v>
-      </c>
-      <c r="F78" t="s">
-        <v>247</v>
+        <v>18</v>
+      </c>
+      <c r="F78">
+        <v>25793</v>
       </c>
       <c r="G78" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H78">
         <v>11436</v>
@@ -5375,19 +4967,19 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>248</v>
+        <v>173</v>
       </c>
       <c r="D79" t="s">
-        <v>249</v>
+        <v>174</v>
       </c>
       <c r="E79" t="s">
-        <v>23</v>
-      </c>
-      <c r="F79" t="s">
-        <v>250</v>
+        <v>18</v>
+      </c>
+      <c r="F79">
+        <v>25798</v>
       </c>
       <c r="G79" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H79">
         <v>13646</v>
@@ -5422,19 +5014,19 @@
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>251</v>
+        <v>175</v>
       </c>
       <c r="D80" t="s">
-        <v>252</v>
+        <v>176</v>
       </c>
       <c r="E80" t="s">
-        <v>23</v>
-      </c>
-      <c r="F80" t="s">
-        <v>253</v>
+        <v>18</v>
+      </c>
+      <c r="F80">
+        <v>25761</v>
       </c>
       <c r="G80" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H80">
         <v>12553</v>
@@ -5469,19 +5061,19 @@
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>254</v>
+        <v>177</v>
       </c>
       <c r="D81" t="s">
-        <v>255</v>
+        <v>178</v>
       </c>
       <c r="E81" t="s">
-        <v>23</v>
-      </c>
-      <c r="F81" t="s">
-        <v>256</v>
+        <v>18</v>
+      </c>
+      <c r="F81">
+        <v>25760</v>
       </c>
       <c r="G81" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H81">
         <v>14756</v>
@@ -5516,19 +5108,19 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>257</v>
+        <v>179</v>
       </c>
       <c r="D82" t="s">
-        <v>258</v>
+        <v>180</v>
       </c>
       <c r="E82" t="s">
-        <v>23</v>
-      </c>
-      <c r="F82" t="s">
-        <v>259</v>
+        <v>18</v>
+      </c>
+      <c r="F82">
+        <v>25759</v>
       </c>
       <c r="G82" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H82">
         <v>10053</v>
@@ -5563,19 +5155,19 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>260</v>
+        <v>181</v>
       </c>
       <c r="D83" t="s">
-        <v>261</v>
+        <v>182</v>
       </c>
       <c r="E83" t="s">
-        <v>23</v>
-      </c>
-      <c r="F83" t="s">
-        <v>262</v>
+        <v>18</v>
+      </c>
+      <c r="F83">
+        <v>25742</v>
       </c>
       <c r="G83" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H83">
         <v>3684</v>
@@ -5610,19 +5202,19 @@
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>263</v>
+        <v>183</v>
       </c>
       <c r="D84" t="s">
-        <v>264</v>
+        <v>184</v>
       </c>
       <c r="E84" t="s">
-        <v>23</v>
-      </c>
-      <c r="F84" t="s">
-        <v>265</v>
+        <v>18</v>
+      </c>
+      <c r="F84">
+        <v>25740</v>
       </c>
       <c r="G84" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H84">
         <v>13865</v>
@@ -5657,19 +5249,19 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>266</v>
+        <v>185</v>
       </c>
       <c r="D85" t="s">
-        <v>267</v>
+        <v>186</v>
       </c>
       <c r="E85" t="s">
-        <v>23</v>
-      </c>
-      <c r="F85" t="s">
-        <v>268</v>
+        <v>18</v>
+      </c>
+      <c r="F85">
+        <v>25734</v>
       </c>
       <c r="G85" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H85">
         <v>9687</v>
@@ -5704,19 +5296,19 @@
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>269</v>
+        <v>187</v>
       </c>
       <c r="D86" t="s">
-        <v>270</v>
+        <v>188</v>
       </c>
       <c r="E86" t="s">
-        <v>23</v>
-      </c>
-      <c r="F86" t="s">
-        <v>271</v>
+        <v>18</v>
+      </c>
+      <c r="F86">
+        <v>23683</v>
       </c>
       <c r="G86" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H86">
         <v>5931</v>
@@ -5751,19 +5343,19 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>272</v>
+        <v>189</v>
       </c>
       <c r="D87" t="s">
-        <v>273</v>
+        <v>190</v>
       </c>
       <c r="E87" t="s">
-        <v>23</v>
-      </c>
-      <c r="F87" t="s">
-        <v>274</v>
+        <v>18</v>
+      </c>
+      <c r="F87">
+        <v>23687</v>
       </c>
       <c r="G87" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H87">
         <v>7206</v>
@@ -5798,19 +5390,19 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>275</v>
+        <v>191</v>
       </c>
       <c r="D88" t="s">
-        <v>276</v>
+        <v>192</v>
       </c>
       <c r="E88" t="s">
-        <v>23</v>
-      </c>
-      <c r="F88" t="s">
-        <v>277</v>
+        <v>18</v>
+      </c>
+      <c r="F88">
+        <v>23679</v>
       </c>
       <c r="G88" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H88">
         <v>5615</v>
@@ -5845,19 +5437,19 @@
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>278</v>
+        <v>193</v>
       </c>
       <c r="D89" t="s">
-        <v>279</v>
+        <v>194</v>
       </c>
       <c r="E89" t="s">
-        <v>23</v>
-      </c>
-      <c r="F89" t="s">
-        <v>280</v>
+        <v>18</v>
+      </c>
+      <c r="F89">
+        <v>23689</v>
       </c>
       <c r="G89" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H89">
         <v>15691</v>
@@ -5892,19 +5484,19 @@
         <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>281</v>
+        <v>195</v>
       </c>
       <c r="D90" t="s">
-        <v>282</v>
+        <v>196</v>
       </c>
       <c r="E90" t="s">
-        <v>23</v>
-      </c>
-      <c r="F90" t="s">
-        <v>283</v>
+        <v>18</v>
+      </c>
+      <c r="F90">
+        <v>25674</v>
       </c>
       <c r="G90" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H90">
         <v>17354</v>
@@ -5939,19 +5531,19 @@
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>284</v>
+        <v>197</v>
       </c>
       <c r="D91" t="s">
-        <v>285</v>
+        <v>198</v>
       </c>
       <c r="E91" t="s">
-        <v>23</v>
-      </c>
-      <c r="F91" t="s">
-        <v>286</v>
+        <v>18</v>
+      </c>
+      <c r="F91">
+        <v>23685</v>
       </c>
       <c r="G91" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H91">
         <v>6973</v>
@@ -5986,19 +5578,19 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="D92" t="s">
-        <v>288</v>
+        <v>200</v>
       </c>
       <c r="E92" t="s">
-        <v>23</v>
-      </c>
-      <c r="F92" t="s">
-        <v>289</v>
+        <v>18</v>
+      </c>
+      <c r="F92">
+        <v>25673</v>
       </c>
       <c r="G92" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H92">
         <v>14858</v>
@@ -6033,19 +5625,19 @@
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>290</v>
+        <v>201</v>
       </c>
       <c r="D93" t="s">
-        <v>291</v>
+        <v>202</v>
       </c>
       <c r="E93" t="s">
-        <v>23</v>
-      </c>
-      <c r="F93" t="s">
-        <v>292</v>
+        <v>18</v>
+      </c>
+      <c r="F93">
+        <v>25677</v>
       </c>
       <c r="G93" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H93">
         <v>13582</v>
@@ -6080,19 +5672,19 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>293</v>
+        <v>203</v>
       </c>
       <c r="D94" t="s">
-        <v>294</v>
+        <v>204</v>
       </c>
       <c r="E94" t="s">
-        <v>23</v>
-      </c>
-      <c r="F94" t="s">
-        <v>295</v>
+        <v>18</v>
+      </c>
+      <c r="F94">
+        <v>23686</v>
       </c>
       <c r="G94" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H94">
         <v>16903</v>
@@ -6127,19 +5719,19 @@
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>296</v>
+        <v>205</v>
       </c>
       <c r="D95" t="s">
-        <v>297</v>
+        <v>206</v>
       </c>
       <c r="E95" t="s">
-        <v>23</v>
-      </c>
-      <c r="F95" t="s">
-        <v>298</v>
+        <v>18</v>
+      </c>
+      <c r="F95">
+        <v>25663</v>
       </c>
       <c r="G95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H95">
         <v>17442</v>
@@ -6174,19 +5766,19 @@
         <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>299</v>
+        <v>207</v>
       </c>
       <c r="D96" t="s">
-        <v>300</v>
+        <v>208</v>
       </c>
       <c r="E96" t="s">
-        <v>23</v>
-      </c>
-      <c r="F96" t="s">
-        <v>301</v>
+        <v>18</v>
+      </c>
+      <c r="F96">
+        <v>25713</v>
       </c>
       <c r="G96" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H96">
         <v>19352</v>
@@ -6221,19 +5813,19 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>302</v>
+        <v>209</v>
       </c>
       <c r="D97" t="s">
-        <v>303</v>
+        <v>210</v>
       </c>
       <c r="E97" t="s">
-        <v>23</v>
-      </c>
-      <c r="F97" t="s">
-        <v>304</v>
+        <v>18</v>
+      </c>
+      <c r="F97">
+        <v>25787</v>
       </c>
       <c r="G97" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H97">
         <v>16183</v>
@@ -6268,19 +5860,19 @@
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>305</v>
+        <v>211</v>
       </c>
       <c r="D98" t="s">
-        <v>306</v>
+        <v>212</v>
       </c>
       <c r="E98" t="s">
-        <v>23</v>
-      </c>
-      <c r="F98" t="s">
-        <v>307</v>
+        <v>18</v>
+      </c>
+      <c r="F98">
+        <v>25777</v>
       </c>
       <c r="G98" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H98">
         <v>7233</v>
@@ -6315,19 +5907,19 @@
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>308</v>
+        <v>213</v>
       </c>
       <c r="D99" t="s">
-        <v>309</v>
+        <v>214</v>
       </c>
       <c r="E99" t="s">
-        <v>23</v>
-      </c>
-      <c r="F99" t="s">
-        <v>310</v>
+        <v>18</v>
+      </c>
+      <c r="F99">
+        <v>25771</v>
       </c>
       <c r="G99" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H99">
         <v>14799</v>
@@ -6362,19 +5954,19 @@
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>311</v>
+        <v>215</v>
       </c>
       <c r="D100" t="s">
-        <v>312</v>
+        <v>216</v>
       </c>
       <c r="E100" t="s">
-        <v>23</v>
-      </c>
-      <c r="F100" t="s">
-        <v>313</v>
+        <v>18</v>
+      </c>
+      <c r="F100">
+        <v>23678</v>
       </c>
       <c r="G100" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H100">
         <v>13499</v>
@@ -6409,19 +6001,19 @@
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>314</v>
+        <v>217</v>
       </c>
       <c r="D101" t="s">
-        <v>315</v>
+        <v>218</v>
       </c>
       <c r="E101" t="s">
-        <v>23</v>
-      </c>
-      <c r="F101" t="s">
-        <v>316</v>
+        <v>18</v>
+      </c>
+      <c r="F101">
+        <v>25773</v>
       </c>
       <c r="G101" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H101">
         <v>19462</v>
@@ -6456,19 +6048,19 @@
         <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>317</v>
+        <v>219</v>
       </c>
       <c r="D102" t="s">
-        <v>318</v>
+        <v>220</v>
       </c>
       <c r="E102" t="s">
-        <v>23</v>
-      </c>
-      <c r="F102" t="s">
-        <v>319</v>
+        <v>18</v>
+      </c>
+      <c r="F102">
+        <v>25772</v>
       </c>
       <c r="G102" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H102">
         <v>6153</v>
@@ -6503,19 +6095,19 @@
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>320</v>
+        <v>221</v>
       </c>
       <c r="D103" t="s">
-        <v>321</v>
+        <v>222</v>
       </c>
       <c r="E103" t="s">
-        <v>23</v>
-      </c>
-      <c r="F103" t="s">
-        <v>322</v>
+        <v>18</v>
+      </c>
+      <c r="F103">
+        <v>25728</v>
       </c>
       <c r="G103" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H103">
         <v>10125</v>
@@ -6550,19 +6142,19 @@
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>323</v>
+        <v>223</v>
       </c>
       <c r="D104" t="s">
-        <v>324</v>
+        <v>224</v>
       </c>
       <c r="E104" t="s">
-        <v>23</v>
-      </c>
-      <c r="F104" t="s">
-        <v>325</v>
+        <v>18</v>
+      </c>
+      <c r="F104">
+        <v>25724</v>
       </c>
       <c r="G104" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H104">
         <v>19893</v>
@@ -6597,19 +6189,19 @@
         <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="D105" t="s">
-        <v>327</v>
+        <v>226</v>
       </c>
       <c r="E105" t="s">
-        <v>23</v>
-      </c>
-      <c r="F105" t="s">
-        <v>328</v>
+        <v>18</v>
+      </c>
+      <c r="F105">
+        <v>25727</v>
       </c>
       <c r="G105" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H105">
         <v>20158</v>
@@ -6644,19 +6236,19 @@
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>329</v>
+        <v>227</v>
       </c>
       <c r="D106" t="s">
-        <v>330</v>
+        <v>228</v>
       </c>
       <c r="E106" t="s">
-        <v>23</v>
-      </c>
-      <c r="F106" t="s">
-        <v>331</v>
+        <v>18</v>
+      </c>
+      <c r="F106">
+        <v>25744</v>
       </c>
       <c r="G106" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -6691,19 +6283,19 @@
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>332</v>
+        <v>229</v>
       </c>
       <c r="D107" t="s">
-        <v>333</v>
+        <v>230</v>
       </c>
       <c r="E107" t="s">
-        <v>23</v>
-      </c>
-      <c r="F107" t="s">
-        <v>334</v>
+        <v>18</v>
+      </c>
+      <c r="F107">
+        <v>25722</v>
       </c>
       <c r="G107" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H107">
         <v>9231</v>
@@ -6738,19 +6330,19 @@
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>335</v>
+        <v>231</v>
       </c>
       <c r="D108" t="s">
-        <v>336</v>
+        <v>232</v>
       </c>
       <c r="E108" t="s">
-        <v>23</v>
-      </c>
-      <c r="F108" t="s">
-        <v>337</v>
+        <v>18</v>
+      </c>
+      <c r="F108">
+        <v>25721</v>
       </c>
       <c r="G108" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H108">
         <v>10407</v>
@@ -6785,19 +6377,19 @@
         <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>338</v>
+        <v>233</v>
       </c>
       <c r="D109" t="s">
-        <v>339</v>
+        <v>234</v>
       </c>
       <c r="E109" t="s">
-        <v>23</v>
-      </c>
-      <c r="F109" t="s">
-        <v>340</v>
+        <v>18</v>
+      </c>
+      <c r="F109">
+        <v>25784</v>
       </c>
       <c r="G109" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H109">
         <v>13014</v>
@@ -6832,19 +6424,19 @@
         <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>341</v>
+        <v>235</v>
       </c>
       <c r="D110" t="s">
-        <v>342</v>
+        <v>236</v>
       </c>
       <c r="E110" t="s">
-        <v>23</v>
-      </c>
-      <c r="F110" t="s">
-        <v>343</v>
+        <v>18</v>
+      </c>
+      <c r="F110">
+        <v>25780</v>
       </c>
       <c r="G110" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H110">
         <v>25725</v>
@@ -6879,19 +6471,19 @@
         <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>344</v>
+        <v>237</v>
       </c>
       <c r="D111" t="s">
-        <v>345</v>
+        <v>238</v>
       </c>
       <c r="E111" t="s">
-        <v>23</v>
-      </c>
-      <c r="F111" t="s">
-        <v>346</v>
+        <v>18</v>
+      </c>
+      <c r="F111">
+        <v>25779</v>
       </c>
       <c r="G111" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H111">
         <v>14744</v>
@@ -6926,19 +6518,19 @@
         <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>347</v>
+        <v>239</v>
       </c>
       <c r="D112" t="s">
-        <v>348</v>
+        <v>240</v>
       </c>
       <c r="E112" t="s">
-        <v>23</v>
-      </c>
-      <c r="F112" t="s">
-        <v>349</v>
+        <v>18</v>
+      </c>
+      <c r="F112">
+        <v>25730</v>
       </c>
       <c r="G112" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H112">
         <v>9915</v>
@@ -6973,19 +6565,19 @@
         <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>350</v>
+        <v>241</v>
       </c>
       <c r="D113" t="s">
-        <v>351</v>
+        <v>242</v>
       </c>
       <c r="E113" t="s">
-        <v>23</v>
-      </c>
-      <c r="F113" t="s">
-        <v>352</v>
+        <v>18</v>
+      </c>
+      <c r="F113">
+        <v>25782</v>
       </c>
       <c r="G113" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H113">
         <v>14983</v>
@@ -7020,19 +6612,19 @@
         <v>1</v>
       </c>
       <c r="C114" t="s">
-        <v>353</v>
+        <v>243</v>
       </c>
       <c r="D114" t="s">
-        <v>354</v>
+        <v>244</v>
       </c>
       <c r="E114" t="s">
-        <v>23</v>
-      </c>
-      <c r="F114" t="s">
-        <v>355</v>
+        <v>18</v>
+      </c>
+      <c r="F114">
+        <v>25776</v>
       </c>
       <c r="G114" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H114">
         <v>2399</v>
@@ -7067,19 +6659,19 @@
         <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>356</v>
+        <v>245</v>
       </c>
       <c r="D115" t="s">
-        <v>357</v>
+        <v>246</v>
       </c>
       <c r="E115" t="s">
-        <v>23</v>
-      </c>
-      <c r="F115" t="s">
-        <v>358</v>
+        <v>18</v>
+      </c>
+      <c r="F115">
+        <v>25752</v>
       </c>
       <c r="G115" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H115">
         <v>8863</v>
@@ -7114,19 +6706,19 @@
         <v>1</v>
       </c>
       <c r="C116" t="s">
-        <v>359</v>
+        <v>247</v>
       </c>
       <c r="D116" t="s">
-        <v>360</v>
+        <v>248</v>
       </c>
       <c r="E116" t="s">
-        <v>23</v>
-      </c>
-      <c r="F116" t="s">
-        <v>361</v>
+        <v>18</v>
+      </c>
+      <c r="F116">
+        <v>25731</v>
       </c>
       <c r="G116" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H116">
         <v>12277</v>
@@ -7161,19 +6753,19 @@
         <v>1</v>
       </c>
       <c r="C117" t="s">
-        <v>362</v>
+        <v>249</v>
       </c>
       <c r="D117" t="s">
-        <v>363</v>
+        <v>250</v>
       </c>
       <c r="E117" t="s">
-        <v>23</v>
-      </c>
-      <c r="F117" t="s">
-        <v>364</v>
+        <v>18</v>
+      </c>
+      <c r="F117">
+        <v>25723</v>
       </c>
       <c r="G117" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H117">
         <v>11648</v>
@@ -7208,19 +6800,19 @@
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>365</v>
+        <v>251</v>
       </c>
       <c r="D118" t="s">
-        <v>366</v>
+        <v>252</v>
       </c>
       <c r="E118" t="s">
-        <v>23</v>
-      </c>
-      <c r="F118" t="s">
-        <v>367</v>
+        <v>18</v>
+      </c>
+      <c r="F118">
+        <v>44451</v>
       </c>
       <c r="G118" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H118">
         <v>18695</v>
@@ -7255,19 +6847,19 @@
         <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>368</v>
+        <v>253</v>
       </c>
       <c r="D119" t="s">
-        <v>369</v>
+        <v>254</v>
       </c>
       <c r="E119" t="s">
-        <v>23</v>
-      </c>
-      <c r="F119" t="s">
-        <v>370</v>
+        <v>18</v>
+      </c>
+      <c r="F119">
+        <v>55904</v>
       </c>
       <c r="G119" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H119">
         <v>13287</v>
@@ -7302,19 +6894,19 @@
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>371</v>
+        <v>255</v>
       </c>
       <c r="D120" t="s">
-        <v>372</v>
+        <v>256</v>
       </c>
       <c r="E120" t="s">
-        <v>23</v>
-      </c>
-      <c r="F120" t="s">
-        <v>373</v>
+        <v>18</v>
+      </c>
+      <c r="F120">
+        <v>55903</v>
       </c>
       <c r="G120" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H120">
         <v>10201</v>
@@ -7349,19 +6941,19 @@
         <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>374</v>
+        <v>257</v>
       </c>
       <c r="D121" t="s">
-        <v>375</v>
+        <v>258</v>
       </c>
       <c r="E121" t="s">
-        <v>23</v>
-      </c>
-      <c r="F121" t="s">
-        <v>376</v>
+        <v>18</v>
+      </c>
+      <c r="F121">
+        <v>55908</v>
       </c>
       <c r="G121" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H121">
         <v>11914</v>
@@ -7396,19 +6988,19 @@
         <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>377</v>
+        <v>259</v>
       </c>
       <c r="D122" t="s">
-        <v>378</v>
+        <v>260</v>
       </c>
       <c r="E122" t="s">
-        <v>23</v>
-      </c>
-      <c r="F122" t="s">
-        <v>379</v>
+        <v>18</v>
+      </c>
+      <c r="F122">
+        <v>55902</v>
       </c>
       <c r="G122" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H122">
         <v>9760</v>
@@ -7443,19 +7035,19 @@
         <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>380</v>
+        <v>261</v>
       </c>
       <c r="D123" t="s">
-        <v>381</v>
+        <v>262</v>
       </c>
       <c r="E123" t="s">
-        <v>23</v>
-      </c>
-      <c r="F123" t="s">
-        <v>382</v>
+        <v>18</v>
+      </c>
+      <c r="F123">
+        <v>55907</v>
       </c>
       <c r="G123" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H123">
         <v>11853</v>
@@ -7490,19 +7082,19 @@
         <v>1</v>
       </c>
       <c r="C124" t="s">
-        <v>383</v>
+        <v>263</v>
       </c>
       <c r="D124" t="s">
-        <v>384</v>
+        <v>264</v>
       </c>
       <c r="E124" t="s">
-        <v>23</v>
-      </c>
-      <c r="F124" t="s">
-        <v>385</v>
+        <v>18</v>
+      </c>
+      <c r="F124">
+        <v>55901</v>
       </c>
       <c r="G124" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H124">
         <v>12871</v>
@@ -7537,19 +7129,19 @@
         <v>1</v>
       </c>
       <c r="C125" t="s">
-        <v>386</v>
+        <v>265</v>
       </c>
       <c r="D125" t="s">
-        <v>387</v>
+        <v>266</v>
       </c>
       <c r="E125" t="s">
-        <v>23</v>
-      </c>
-      <c r="F125" t="s">
-        <v>388</v>
+        <v>18</v>
+      </c>
+      <c r="F125">
+        <v>55906</v>
       </c>
       <c r="G125" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H125">
         <v>14311</v>
@@ -7584,19 +7176,19 @@
         <v>1</v>
       </c>
       <c r="C126" t="s">
-        <v>389</v>
+        <v>267</v>
       </c>
       <c r="D126" t="s">
-        <v>390</v>
+        <v>268</v>
       </c>
       <c r="E126" t="s">
-        <v>23</v>
-      </c>
-      <c r="F126" t="s">
-        <v>391</v>
+        <v>18</v>
+      </c>
+      <c r="F126">
+        <v>55909</v>
       </c>
       <c r="G126" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H126">
         <v>15924</v>
@@ -7631,19 +7223,19 @@
         <v>1</v>
       </c>
       <c r="C127" t="s">
-        <v>392</v>
+        <v>269</v>
       </c>
       <c r="D127" t="s">
-        <v>393</v>
+        <v>270</v>
       </c>
       <c r="E127" t="s">
-        <v>23</v>
-      </c>
-      <c r="F127" t="s">
-        <v>394</v>
+        <v>18</v>
+      </c>
+      <c r="F127">
+        <v>44453</v>
       </c>
       <c r="G127" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H127">
         <v>21334</v>
@@ -7678,19 +7270,19 @@
         <v>1</v>
       </c>
       <c r="C128" t="s">
-        <v>395</v>
+        <v>271</v>
       </c>
       <c r="D128" t="s">
-        <v>396</v>
+        <v>272</v>
       </c>
       <c r="E128" t="s">
-        <v>23</v>
-      </c>
-      <c r="F128" t="s">
-        <v>397</v>
+        <v>18</v>
+      </c>
+      <c r="F128">
+        <v>44452</v>
       </c>
       <c r="G128" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H128">
         <v>23542</v>
@@ -7725,19 +7317,19 @@
         <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>398</v>
+        <v>273</v>
       </c>
       <c r="D129" t="s">
-        <v>399</v>
+        <v>274</v>
       </c>
       <c r="E129" t="s">
-        <v>23</v>
-      </c>
-      <c r="F129" t="s">
-        <v>400</v>
+        <v>18</v>
+      </c>
+      <c r="F129">
+        <v>55920</v>
       </c>
       <c r="G129" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H129">
         <v>16499</v>
@@ -7772,19 +7364,19 @@
         <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>401</v>
+        <v>275</v>
       </c>
       <c r="D130" t="s">
-        <v>402</v>
+        <v>276</v>
       </c>
       <c r="E130" t="s">
-        <v>23</v>
-      </c>
-      <c r="F130" t="s">
-        <v>403</v>
+        <v>18</v>
+      </c>
+      <c r="F130">
+        <v>55919</v>
       </c>
       <c r="G130" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H130">
         <v>7530</v>
@@ -7819,19 +7411,19 @@
         <v>1</v>
       </c>
       <c r="C131" t="s">
-        <v>404</v>
+        <v>277</v>
       </c>
       <c r="D131" t="s">
-        <v>405</v>
+        <v>278</v>
       </c>
       <c r="E131" t="s">
-        <v>23</v>
-      </c>
-      <c r="F131" t="s">
-        <v>406</v>
+        <v>18</v>
+      </c>
+      <c r="F131">
+        <v>55917</v>
       </c>
       <c r="G131" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H131">
         <v>9992</v>
@@ -7866,19 +7458,19 @@
         <v>1</v>
       </c>
       <c r="C132" t="s">
-        <v>407</v>
+        <v>279</v>
       </c>
       <c r="D132" t="s">
-        <v>408</v>
+        <v>280</v>
       </c>
       <c r="E132" t="s">
-        <v>23</v>
-      </c>
-      <c r="F132" t="s">
-        <v>409</v>
+        <v>18</v>
+      </c>
+      <c r="F132">
+        <v>55912</v>
       </c>
       <c r="G132" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H132">
         <v>16750</v>
@@ -7913,19 +7505,19 @@
         <v>1</v>
       </c>
       <c r="C133" t="s">
-        <v>410</v>
+        <v>281</v>
       </c>
       <c r="D133" t="s">
-        <v>411</v>
+        <v>282</v>
       </c>
       <c r="E133" t="s">
-        <v>23</v>
-      </c>
-      <c r="F133" t="s">
-        <v>412</v>
+        <v>18</v>
+      </c>
+      <c r="F133">
+        <v>55871</v>
       </c>
       <c r="G133" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H133">
         <v>13971</v>
@@ -7960,19 +7552,19 @@
         <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>413</v>
+        <v>283</v>
       </c>
       <c r="D134" t="s">
-        <v>414</v>
+        <v>284</v>
       </c>
       <c r="E134" t="s">
-        <v>23</v>
-      </c>
-      <c r="F134" t="s">
-        <v>415</v>
+        <v>18</v>
+      </c>
+      <c r="F134">
+        <v>55910</v>
       </c>
       <c r="G134" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H134">
         <v>14966</v>
@@ -8007,19 +7599,19 @@
         <v>1</v>
       </c>
       <c r="C135" t="s">
-        <v>416</v>
+        <v>285</v>
       </c>
       <c r="D135" t="s">
-        <v>417</v>
+        <v>286</v>
       </c>
       <c r="E135" t="s">
-        <v>23</v>
-      </c>
-      <c r="F135" t="s">
-        <v>418</v>
+        <v>18</v>
+      </c>
+      <c r="F135">
+        <v>55925</v>
       </c>
       <c r="G135" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H135">
         <v>10676</v>
@@ -8054,19 +7646,19 @@
         <v>1</v>
       </c>
       <c r="C136" t="s">
-        <v>419</v>
+        <v>287</v>
       </c>
       <c r="D136" t="s">
-        <v>420</v>
+        <v>288</v>
       </c>
       <c r="E136" t="s">
-        <v>23</v>
-      </c>
-      <c r="F136" t="s">
-        <v>421</v>
+        <v>18</v>
+      </c>
+      <c r="F136">
+        <v>55911</v>
       </c>
       <c r="G136" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H136">
         <v>13702</v>
@@ -8101,19 +7693,19 @@
         <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>422</v>
+        <v>289</v>
       </c>
       <c r="D137" t="s">
-        <v>423</v>
+        <v>290</v>
       </c>
       <c r="E137" t="s">
-        <v>23</v>
-      </c>
-      <c r="F137" t="s">
-        <v>424</v>
+        <v>18</v>
+      </c>
+      <c r="F137">
+        <v>55918</v>
       </c>
       <c r="G137" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H137">
         <v>15978</v>
@@ -8148,19 +7740,19 @@
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>425</v>
+        <v>291</v>
       </c>
       <c r="D138" t="s">
-        <v>426</v>
+        <v>292</v>
       </c>
       <c r="E138" t="s">
-        <v>23</v>
-      </c>
-      <c r="F138" t="s">
-        <v>427</v>
+        <v>18</v>
+      </c>
+      <c r="F138">
+        <v>55913</v>
       </c>
       <c r="G138" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H138">
         <v>11884</v>
@@ -8195,19 +7787,19 @@
         <v>1</v>
       </c>
       <c r="C139" t="s">
-        <v>428</v>
+        <v>293</v>
       </c>
       <c r="D139" t="s">
-        <v>429</v>
+        <v>294</v>
       </c>
       <c r="E139" t="s">
-        <v>23</v>
-      </c>
-      <c r="F139" t="s">
-        <v>430</v>
+        <v>18</v>
+      </c>
+      <c r="F139">
+        <v>44454</v>
       </c>
       <c r="G139" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H139">
         <v>18012</v>
@@ -8242,19 +7834,19 @@
         <v>1</v>
       </c>
       <c r="C140" t="s">
-        <v>431</v>
+        <v>295</v>
       </c>
       <c r="D140" t="s">
-        <v>432</v>
+        <v>296</v>
       </c>
       <c r="E140" t="s">
-        <v>433</v>
+        <v>297</v>
       </c>
       <c r="F140">
         <v>8099244</v>
       </c>
       <c r="G140" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H140">
         <v>8629</v>
@@ -8289,19 +7881,19 @@
         <v>1</v>
       </c>
       <c r="C141" t="s">
-        <v>434</v>
+        <v>298</v>
       </c>
       <c r="D141" t="s">
-        <v>435</v>
+        <v>299</v>
       </c>
       <c r="E141" t="s">
-        <v>433</v>
+        <v>297</v>
       </c>
       <c r="F141">
         <v>8099252</v>
       </c>
       <c r="G141" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H141">
         <v>14037</v>
@@ -8333,7 +7925,7 @@
         <v>1</v>
       </c>
       <c r="B142" t="s">
-        <v>436</v>
+        <v>300</v>
       </c>
       <c r="C142" t="s">
         <v>1</v>
